--- a/books.xlsx
+++ b/books.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,34 +9,554 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>http://www.sciencedirect.com/science/journal/19389736</t>
   </si>
   <si>
-    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1463-6395</t>
-  </si>
-  <si>
-    <t>Acta Zoologica</t>
-  </si>
-  <si>
-    <t>Topics in Companion Animal Medicine</t>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1939-165X</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1865-1682</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1863-2378</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1365-2885</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)2044-3870</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1365-2915</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1439-0531</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1002/(ISSN)1096-9071</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1467-2995</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1476-5829</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1365-3164</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1002/(ISSN)2053-1095</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)2045-0648</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1463-5224</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1740-8261</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1532-950X</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1524-475X</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1399-3089</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/journal/10.1111/(ISSN)1439-0396</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01678809</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00033472</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00661856</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03778401</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03784320</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03043762</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00448486</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03766357</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09505601</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00071935</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15347516</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10962867</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01479571</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01681699</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00112240</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/18796257</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/0145305X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/07397240</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/17624215</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09586946</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/14384221</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00207519</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22113207</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22132244</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/23144599</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00219975</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03681742</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00220302</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/07370806</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15575063</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09398600</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1098612X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/0946672X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15587878</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/17602734</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03016226</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/18711413</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03091740</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22117539</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/02624079</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/07581882</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01675877</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1877282X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1642431X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00345288</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22112839</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1055937X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09214488</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/18775845</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/0093691X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/14729792</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1877959X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/18794378</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00413879</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/0264410X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10900233</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/07490739</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10949194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sciencedirect.com/science/journal/07490720 </t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01955616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sciencedirect.com/science/journal/01652427 </t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03781135</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journals/sub/vetscimed/v</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09348840</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01725599</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01743031</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01766724</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00445169</t>
+  </si>
+  <si>
+    <t>[Veterinary Clinical Pathology]</t>
+  </si>
+  <si>
+    <t>[Transboundary and Emerging Diseases]</t>
+  </si>
+  <si>
+    <t>[Zoonoses and Public Health]</t>
+  </si>
+  <si>
+    <t>[Journal of Veterinary Pharmacology and Therapeutics]</t>
+  </si>
+  <si>
+    <t>[Livestock]</t>
+  </si>
+  <si>
+    <t>[Medical and Veterinary Entomology]</t>
+  </si>
+  <si>
+    <t>[Reproduction in Domestic Animals]</t>
+  </si>
+  <si>
+    <t>[ Journal of Medical Virology]</t>
+  </si>
+  <si>
+    <t>[Veterinary Anaesthesia and Analgesia]</t>
+  </si>
+  <si>
+    <t>[Veterinary and Comparative Oncology]</t>
+  </si>
+  <si>
+    <t>[Veterinary Dermatology]</t>
+  </si>
+  <si>
+    <t>[Veterinary Medicine and Science]</t>
+  </si>
+  <si>
+    <t>[Veterinary Nursing Journal]</t>
+  </si>
+  <si>
+    <t>[Veterinary Ophthalmology]</t>
+  </si>
+  <si>
+    <t>[ Veterinary Radiology &amp; Ultrasound]</t>
+  </si>
+  <si>
+    <t>[Veterinary Surgery]</t>
+  </si>
+  <si>
+    <t>[Wound Repair and Regeneration]</t>
+  </si>
+  <si>
+    <t>[Xenotransplantation]</t>
+  </si>
+  <si>
+    <t>[Journal of Animal Physiology and Animal Nutrition]</t>
+  </si>
+  <si>
+    <t>[Agriculture, Ecosystems &amp; Environment]</t>
+  </si>
+  <si>
+    <t>[Animal Behaviour]</t>
+  </si>
+  <si>
+    <t>[Animal Behaviour Monographs]</t>
+  </si>
+  <si>
+    <t>[Animal Feed Science and Technology]</t>
+  </si>
+  <si>
+    <t>[Animal Reproduction Science]</t>
+  </si>
+  <si>
+    <t>[Applied Animal Ethology]</t>
+  </si>
+  <si>
+    <t>[Aquaculture]</t>
+  </si>
+  <si>
+    <t>[Behavioural Processes]</t>
+  </si>
+  <si>
+    <t>[The British Journal of Animal Behaviour]</t>
+  </si>
+  <si>
+    <t>[British Veterinary Journal]</t>
+  </si>
+  <si>
+    <t>[Clinical Techniques in Equine Practice]</t>
+  </si>
+  <si>
+    <t>[Clinical Techniques in Small Animal Practice]</t>
+  </si>
+  <si>
+    <t>[Comparative Immunology, Microbiology and Infectious Diseases]</t>
+  </si>
+  <si>
+    <t>[Computers and Electronics in Agriculture]</t>
+  </si>
+  <si>
+    <t>[Cryobiology]</t>
+  </si>
+  <si>
+    <t>[Current Opinion in Virology]</t>
+  </si>
+  <si>
+    <t>[Developmental &amp; Comparative Immunology]</t>
+  </si>
+  <si>
+    <t>[Domestic Animal Endocrinology]</t>
+  </si>
+  <si>
+    <t>[EMC - Vétérinaire]</t>
+  </si>
+  <si>
+    <t>[International Dairy Journal]</t>
+  </si>
+  <si>
+    <t>[International Journal of Medical Microbiology]</t>
+  </si>
+  <si>
+    <t>[International Journal for Parasitology]</t>
+  </si>
+  <si>
+    <t>[International Journal for Parasitology: Drugs and Drug Resistance]</t>
+  </si>
+  <si>
+    <t>[International Journal for Parasitology: Parasites and Wildlife]</t>
+  </si>
+  <si>
+    <t>[International Journal of Veterinary Science and Medicine]</t>
+  </si>
+  <si>
+    <t>[Journal of Comparative Pathology]</t>
+  </si>
+  <si>
+    <t>[Journal of Comparative Pathology and Therapeutics]</t>
+  </si>
+  <si>
+    <t>[Journal of Dairy Science]</t>
+  </si>
+  <si>
+    <t>[Journal of Equine Veterinary Science]</t>
+  </si>
+  <si>
+    <t>[Journal of Exotic Pet Medicine]</t>
+  </si>
+  <si>
+    <t>[Journal of Experimental Animal Science]</t>
+  </si>
+  <si>
+    <t>[Journal of Feline Medicine &amp; Surgery]</t>
+  </si>
+  <si>
+    <t>[Journal of Trace Elements in Medicine and Biology]</t>
+  </si>
+  <si>
+    <t>[Journal of Veterinary Behavior: Clinical Applications and Research ]</t>
+  </si>
+  <si>
+    <t>[Journal of Veterinary Cardiology]</t>
+  </si>
+  <si>
+    <t>[Livestock Production Science]</t>
+  </si>
+  <si>
+    <t>[Livestock Science]</t>
+  </si>
+  <si>
+    <t>[Meat Science]</t>
+  </si>
+  <si>
+    <t>[Medical Mycology Case Reports]</t>
+  </si>
+  <si>
+    <t>[New Scientist]</t>
+  </si>
+  <si>
+    <t>[Pratique Médicale et Chirurgicale de l'Animal de Compagnie]</t>
+  </si>
+  <si>
+    <t>[Preventive Veterinary Medicine]</t>
+  </si>
+  <si>
+    <t>[Procedia in Vaccinology]</t>
+  </si>
+  <si>
+    <t>[Reproductive Biology]</t>
+  </si>
+  <si>
+    <t>[Research in Veterinary Science]</t>
+  </si>
+  <si>
+    <t>[Results in Immunology]</t>
+  </si>
+  <si>
+    <t>[Seminars in Avian and Exotic Pet Medicine]</t>
+  </si>
+  <si>
+    <t>[Small Ruminant Research]</t>
+  </si>
+  <si>
+    <t>[Spatial and Spatio-temporal Epidemiology]</t>
+  </si>
+  <si>
+    <t>[Theriogenology]</t>
+  </si>
+  <si>
+    <t>[Tuberculosis]</t>
+  </si>
+  <si>
+    <t>[Ticks and Tick-borne Diseases]</t>
+  </si>
+  <si>
+    <t>[Topics in Companion Animal Medicine]</t>
+  </si>
+  <si>
+    <t>[Trials in Vaccinology]</t>
+  </si>
+  <si>
+    <t>[Tubercle]</t>
+  </si>
+  <si>
+    <t>[Vaccine]</t>
+  </si>
+  <si>
+    <t>[The Veterinary Journal]</t>
+  </si>
+  <si>
+    <t>[Veterinary Clinics of North America: Equine Practice ]</t>
+  </si>
+  <si>
+    <t>[Veterinary Clinics of North America: Exotic Animal Practice]</t>
+  </si>
+  <si>
+    <t>[Veterinary Clinics of North America: Food Animal Practice]</t>
+  </si>
+  <si>
+    <t>[Veterinary Clinics of North America: Small Animal Practice]</t>
+  </si>
+  <si>
+    <t>[Veterinary Immunology and Immunopathology]</t>
+  </si>
+  <si>
+    <t>[Veterinary Microbiology]</t>
+  </si>
+  <si>
+    <t>[Veterinary Parasitology]</t>
+  </si>
+  <si>
+    <t>[Zentralblatt für Bakteriologie]</t>
+  </si>
+  <si>
+    <t>[Zentralblatt für Bakteriologie. 1. Abt. Originale A, Medizinische Mikrobiologie, Infektionskrankheiten und Parasitologie]</t>
+  </si>
+  <si>
+    <t>[Zentralblatt für Bakteriologie, Mikrobiologie und Hygiene. 1. Abt. Originale. A, Medizinische Mikrobiologie, Infektionskrankheiten und Parasitologie]</t>
+  </si>
+  <si>
+    <t>[Zentralblatt für Bakteriologie, Mikrobiologie und Hygiene. Series A: Medical Microbiology, Infectious Diseases, Virology, Parasitology]</t>
+  </si>
+  <si>
+    <t>[Der Zoologische Garten]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,9 +564,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,13 +610,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -92,7 +640,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -134,7 +682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,10 +714,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +748,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,39 +923,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25">
+      <c r="A24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25">
+      <c r="A74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25">
+      <c r="A77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25">
+      <c r="A85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B74" r:id="rId2"/>
+    <hyperlink ref="B77" r:id="rId3"/>
+    <hyperlink ref="B85" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
